--- a/grid_search.xlsx
+++ b/grid_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Sync\0_RUG_22_23\1_Deep_reinforcement_learning\Assignment\DRL-A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C207400-D65D-4E6B-889A-AB521646A555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC17555E-5DE5-4627-B892-17488B7ACFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22060" yWindow="2800" windowWidth="16030" windowHeight="14160" xr2:uid="{9F0268AF-2C2E-4E63-B899-D4D6790138AF}"/>
+    <workbookView xWindow="13440" yWindow="1880" windowWidth="24790" windowHeight="15260" xr2:uid="{9F0268AF-2C2E-4E63-B899-D4D6790138AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,10 +464,25 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -842,6 +857,12 @@
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>304.5</v>
+      </c>
+      <c r="C10">
+        <v>34.96</v>
+      </c>
       <c r="D10">
         <v>64</v>
       </c>
@@ -877,6 +898,12 @@
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>402.5</v>
+      </c>
+      <c r="C11">
+        <v>80.510000000000005</v>
+      </c>
       <c r="D11">
         <v>64</v>
       </c>
@@ -911,6 +938,12 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
+      </c>
+      <c r="B12">
+        <v>339</v>
+      </c>
+      <c r="C12">
+        <v>88.96</v>
       </c>
       <c r="D12">
         <v>64</v>
@@ -947,6 +980,12 @@
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>355.5</v>
+      </c>
+      <c r="C13">
+        <v>143.66999999999999</v>
+      </c>
       <c r="D13">
         <v>64</v>
       </c>
@@ -978,38 +1017,44 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="D14">
-        <v>64</v>
-      </c>
-      <c r="E14">
-        <v>5000</v>
-      </c>
-      <c r="F14">
+      <c r="B14" s="3">
+        <v>488.5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>107.57</v>
+      </c>
+      <c r="D14" s="3">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F14" s="3">
         <v>4</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>0.995</v>
       </c>
-      <c r="H14">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14">
+      <c r="H14" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>2048</v>
       </c>
-      <c r="L14">
-        <v>250000</v>
-      </c>
-      <c r="M14">
+      <c r="L14" s="3">
+        <v>250000</v>
+      </c>
+      <c r="M14" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -1017,6 +1062,12 @@
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>266</v>
+      </c>
+      <c r="C15">
+        <v>137.24</v>
+      </c>
       <c r="D15">
         <v>64</v>
       </c>
@@ -1052,6 +1103,12 @@
       <c r="A16">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>437</v>
+      </c>
+      <c r="C16">
+        <v>135.19</v>
+      </c>
       <c r="D16">
         <v>64</v>
       </c>
@@ -1086,6 +1143,12 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
+      </c>
+      <c r="B17">
+        <v>309.5</v>
+      </c>
+      <c r="C17">
+        <v>30.86</v>
       </c>
       <c r="D17">
         <v>64</v>
